--- a/results/4.xlsx
+++ b/results/4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,9 +437,6 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -452,11 +449,6 @@
           <t>GCN</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>GIN</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -465,10 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6085256607351038</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6734910065721204</v>
+        <v>0.6487892394873831</v>
       </c>
     </row>
     <row r="4">
@@ -478,10 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
+        <v>0.03423308461091547</v>
       </c>
     </row>
     <row r="5">
@@ -491,10 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0439430287197989</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06370183662135534</v>
+        <v>0.05750638771072596</v>
       </c>
     </row>
     <row r="6">
@@ -504,10 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
+        <v>0.01052295242841983</v>
       </c>
     </row>
     <row r="7">
@@ -517,10 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.06802721088435375</v>
       </c>
     </row>
     <row r="8">
@@ -530,10 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
+        <v>0.01469555713924685</v>
       </c>
     </row>
     <row r="9">
@@ -543,192 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8966879844665527</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.051008462905884</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>tolokers-AUROC mean</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.7464465239989263</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.740395616939015</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>tolokers-AUROC std</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>tolokers-AUPRC mean</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.4277152894745354</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3649899727946907</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>tolokers-AUPRC std</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>tolokers-RecK mean</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.4205607476635514</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.367601246105919</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>tolokers-RecK std</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>tolokers-Time</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1.112200736999512</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9424426555633545</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>questions-AUROC mean</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.6971526798103942</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.6758817064526481</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>questions-AUROC std</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>questions-AUPRC mean</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.1236793398970518</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1216514886171844</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>questions-AUPRC std</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>questions-RecK mean</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.1698630136986301</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1863013698630137</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>questions-RecK std</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>questions-Time</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.9742231369018555</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.624264717102051</v>
+        <v>1.005359013875325</v>
       </c>
     </row>
   </sheetData>
